--- a/source_data/Fig3_a_b_c_d_e_f.xlsx
+++ b/source_data/Fig3_a_b_c_d_e_f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinan/Library/CloudStorage/Dropbox/NatElec_dualShank_2023/Source Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinan/Library/CloudStorage/Dropbox-BioelectronicSystemsLab/Sinan Yilmaz/NatElec_dualShank_2023/Source Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31379F14-58A1-A044-A34B-E1991083CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FC443-B4EF-E042-A172-B2C18971CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3a" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="3e" sheetId="1" r:id="rId5"/>
     <sheet name="3f" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Air</t>
   </si>
@@ -92,18 +105,29 @@
   <si>
     <t>Row 2</t>
   </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Normalized Version:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3434,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740E0F51-192D-444E-A774-A2057305D444}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3815,9 +3839,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D422495-AB65-084D-9E47-B6208212D785}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3825,9 +3851,11 @@
     <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3843,689 +3871,1526 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-500</v>
       </c>
       <c r="B2">
-        <v>1.191E-3</v>
+        <v>180</v>
       </c>
       <c r="C2">
-        <v>9.4786999999999996E-3</v>
+        <v>225</v>
       </c>
       <c r="D2">
-        <v>2.2894000000000001E-2</v>
+        <v>256</v>
       </c>
       <c r="E2">
-        <v>0.13086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>388.5</v>
+      </c>
+      <c r="I2">
+        <v>-500</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J42" si="0">B2/15772</f>
+        <v>1.1412629977174739E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K42" si="1">C2/8606.5</f>
+        <v>2.614303142973334E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L42" si="2">D2/4321.5</f>
+        <v>5.9238690269582318E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M42" si="3">E2/1873.5</f>
+        <v>0.20736589271417133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-475</v>
       </c>
       <c r="B3">
-        <v>2.0945E-3</v>
+        <v>207</v>
       </c>
       <c r="C3">
-        <v>8.5900000000000004E-3</v>
+        <v>246.5</v>
       </c>
       <c r="D3">
-        <v>2.5784000000000001E-2</v>
+        <v>246</v>
       </c>
       <c r="E3">
-        <v>0.16685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>568.5</v>
+      </c>
+      <c r="I3">
+        <v>-475</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.312452447375095E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8641143321907859E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>5.6924678930926759E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>0.3034427542033627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-450</v>
       </c>
       <c r="B4">
-        <v>2.1354999999999998E-3</v>
+        <v>177.5</v>
       </c>
       <c r="C4">
-        <v>1.1157E-2</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>4.3343E-2</v>
+        <v>287.5</v>
       </c>
       <c r="E4">
-        <v>0.27426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>408.5</v>
+      </c>
+      <c r="I4">
+        <v>-450</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1254121227491757E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.753732643931912E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>6.6527825986347336E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.21804109954630371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-425</v>
       </c>
       <c r="B5">
-        <v>4.3943000000000003E-3</v>
+        <v>216</v>
       </c>
       <c r="C5">
-        <v>1.6685999999999999E-2</v>
+        <v>276</v>
       </c>
       <c r="D5">
-        <v>3.7786E-2</v>
+        <v>326</v>
       </c>
       <c r="E5">
-        <v>0.17121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>521.5</v>
+      </c>
+      <c r="I5">
+        <v>-425</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3695155972609688E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2068785220472899E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>7.5436769640171236E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.2783560181478516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-400</v>
       </c>
       <c r="B6">
-        <v>2.8747E-3</v>
+        <v>243</v>
       </c>
       <c r="C6">
-        <v>1.7575E-2</v>
+        <v>342</v>
       </c>
       <c r="D6">
-        <v>5.0900000000000001E-2</v>
+        <v>341.5</v>
       </c>
       <c r="E6">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>565.5</v>
+      </c>
+      <c r="I6">
+        <v>-400</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5407050469185899E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9737407773194677E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>7.9023487215087354E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.30184147317854282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-375</v>
       </c>
       <c r="B7">
-        <v>3.8192999999999999E-3</v>
+        <v>204.5</v>
       </c>
       <c r="C7">
-        <v>2.034E-2</v>
+        <v>331</v>
       </c>
       <c r="D7">
-        <v>7.1126999999999996E-2</v>
+        <v>441.5</v>
       </c>
       <c r="E7">
-        <v>0.27644000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="I7">
+        <v>-375</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2966015724067968E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8459304014407718E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.10216360060164295</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.2828929810515079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-350</v>
       </c>
       <c r="B8">
-        <v>4.6407000000000002E-3</v>
+        <v>263</v>
       </c>
       <c r="C8">
-        <v>2.4584999999999999E-2</v>
+        <v>393.5</v>
       </c>
       <c r="D8">
-        <v>8.8909000000000002E-2</v>
+        <v>483</v>
       </c>
       <c r="E8">
-        <v>0.26608999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>648.5</v>
+      </c>
+      <c r="I8">
+        <v>-350</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6675120466649759E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.572125718933364E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.11176674765706351</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.34614358153189217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-325</v>
       </c>
       <c r="B9">
-        <v>5.7905999999999999E-3</v>
+        <v>283.5</v>
       </c>
       <c r="C9">
-        <v>3.5347999999999997E-2</v>
+        <v>461.5</v>
       </c>
       <c r="D9">
-        <v>0.11114</v>
+        <v>524</v>
       </c>
       <c r="E9">
-        <v>0.31624999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="I9">
+        <v>-325</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7974892214050214E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3622262243653053E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.12125419414555132</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.40565785962103018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-300</v>
       </c>
       <c r="B10">
-        <v>1.0307999999999999E-2</v>
+        <v>311</v>
       </c>
       <c r="C10">
-        <v>3.9691999999999998E-2</v>
+        <v>493</v>
       </c>
       <c r="D10">
-        <v>0.14781</v>
+        <v>667.5</v>
       </c>
       <c r="E10">
-        <v>0.38222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+      <c r="I10">
+        <v>-300</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9718488460563025E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7282286643815718E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.1544602568552586</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.4819855884707766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-275</v>
       </c>
       <c r="B11">
-        <v>1.1047E-2</v>
+        <v>357.5</v>
       </c>
       <c r="C11">
-        <v>5.0553000000000001E-2</v>
+        <v>581</v>
       </c>
       <c r="D11">
-        <v>0.15403</v>
+        <v>742.5</v>
       </c>
       <c r="E11">
-        <v>0.44002000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1090.5</v>
+      </c>
+      <c r="I11">
+        <v>-275</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2666751204666498E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7507116714111429E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.17181534189517528</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.58206565252201758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-250</v>
       </c>
       <c r="B12">
-        <v>1.7413000000000001E-2</v>
+        <v>508</v>
       </c>
       <c r="C12">
-        <v>7.2570999999999997E-2</v>
+        <v>788.5</v>
       </c>
       <c r="D12">
-        <v>0.19070999999999999</v>
+        <v>916</v>
       </c>
       <c r="E12">
-        <v>0.55615999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1098</v>
+      </c>
+      <c r="I12">
+        <v>-250</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2208977935582042E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1616801254865515E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.21196343862084924</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.58606885508406725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-225</v>
       </c>
       <c r="B13">
-        <v>2.3900999999999999E-2</v>
+        <v>662</v>
       </c>
       <c r="C13">
-        <v>0.10871</v>
+        <v>1093.5</v>
       </c>
       <c r="D13">
-        <v>0.28250999999999998</v>
+        <v>1244.5</v>
       </c>
       <c r="E13">
-        <v>0.56161000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1223.5</v>
+      </c>
+      <c r="I13">
+        <v>-225</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1973116916053765E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12705513274850402</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.28797871109568435</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.65305577795569791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-200</v>
       </c>
       <c r="B14">
-        <v>3.8151999999999998E-2</v>
+        <v>928.5</v>
       </c>
       <c r="C14">
-        <v>0.14445</v>
+        <v>1423.5</v>
       </c>
       <c r="D14">
-        <v>0.34897</v>
+        <v>1516.5</v>
       </c>
       <c r="E14">
-        <v>0.60687000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1409</v>
+      </c>
+      <c r="I14">
+        <v>-200</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.88701496322597E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16539824551211293</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.35091981950711559</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.7520683213237257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-175</v>
       </c>
       <c r="B15">
-        <v>6.6159999999999997E-2</v>
+        <v>1444</v>
       </c>
       <c r="C15">
-        <v>0.19184000000000001</v>
+        <v>1779</v>
       </c>
       <c r="D15">
-        <v>0.46255000000000002</v>
+        <v>1976.5</v>
       </c>
       <c r="E15">
-        <v>0.71592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1399</v>
+      </c>
+      <c r="I15">
+        <v>-175</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1554653816890694E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20670423517109163</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.4573643410852713</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.74673071790765944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-150</v>
       </c>
       <c r="B16">
-        <v>0.10797</v>
+        <v>2243</v>
       </c>
       <c r="C16">
-        <v>0.28850999999999999</v>
+        <v>2587.5</v>
       </c>
       <c r="D16">
-        <v>0.62346999999999997</v>
+        <v>2567.5</v>
       </c>
       <c r="E16">
-        <v>0.70338000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1434</v>
+      </c>
+      <c r="I16">
+        <v>-150</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1422140502155719</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30064486144193342</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.5941224111998149</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.76541232986389107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-125</v>
       </c>
       <c r="B17">
-        <v>0.19413</v>
+        <v>3797.5</v>
       </c>
       <c r="C17">
-        <v>0.47808</v>
+        <v>3950.5</v>
       </c>
       <c r="D17">
-        <v>0.64414000000000005</v>
+        <v>2832</v>
       </c>
       <c r="E17">
-        <v>0.73663999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1515</v>
+      </c>
+      <c r="I17">
+        <v>-125</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24077479076845043</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45901353628071806</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.65532801110725447</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.80864691753402718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-100</v>
       </c>
       <c r="B18">
-        <v>0.35905999999999999</v>
+        <v>6371</v>
       </c>
       <c r="C18">
-        <v>0.55054999999999998</v>
+        <v>4766</v>
       </c>
       <c r="D18">
-        <v>0.68393000000000004</v>
+        <v>3221</v>
       </c>
       <c r="E18">
-        <v>0.75082000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1628.5</v>
+      </c>
+      <c r="I18">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40394369769211258</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55376750130715158</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.74534305218095565</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.86922871630637843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-75</v>
       </c>
       <c r="B19">
-        <v>0.57154000000000005</v>
+        <v>9859</v>
       </c>
       <c r="C19">
-        <v>0.68167</v>
+        <v>6031</v>
       </c>
       <c r="D19">
-        <v>0.79996</v>
+        <v>3553</v>
       </c>
       <c r="E19">
-        <v>0.78898999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1653.5</v>
+      </c>
+      <c r="I19">
+        <v>-75</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62509510524980982</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7007494335676524</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.82216822862432026</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.88257272484654392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-50</v>
       </c>
       <c r="B20">
-        <v>0.74800999999999995</v>
+        <v>12723</v>
       </c>
       <c r="C20">
-        <v>0.76688000000000001</v>
+        <v>6909</v>
       </c>
       <c r="D20">
-        <v>0.88731000000000004</v>
+        <v>3895</v>
       </c>
       <c r="E20">
-        <v>0.89204000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1759.5</v>
+      </c>
+      <c r="I20">
+        <v>-50</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8066827288866345</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80276535176901176</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.90130741640634038</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.93915132105684551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-25</v>
       </c>
       <c r="B21">
-        <v>0.95572999999999997</v>
+        <v>15708.5</v>
       </c>
       <c r="C21">
-        <v>0.91341000000000006</v>
+        <v>8160</v>
       </c>
       <c r="D21">
-        <v>0.99866999999999995</v>
+        <v>4199.5</v>
       </c>
       <c r="E21">
-        <v>0.94057000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1835</v>
+      </c>
+      <c r="I21">
+        <v>-25</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99597387775805224</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94812060651832919</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.97176906166840216</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>0.9794502268481452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
+        <v>15772</v>
+      </c>
+      <c r="C22">
+        <v>8606.5</v>
+      </c>
+      <c r="D22">
+        <v>4321.5</v>
+      </c>
+      <c r="E22">
+        <v>1873.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="L22">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="M22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.73458000000000001</v>
+        <v>11848.5</v>
       </c>
       <c r="C23">
-        <v>0.95586000000000004</v>
+        <v>7997.5</v>
       </c>
       <c r="D23">
-        <v>0.90998000000000001</v>
+        <v>3928.5</v>
       </c>
       <c r="E23">
-        <v>0.96782999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1737</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75123636824752726</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92923952826352174</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.90905935439083652</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.92714171337069651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
       <c r="B24">
-        <v>0.39811000000000002</v>
+        <v>6854.5</v>
       </c>
       <c r="C24">
-        <v>0.77636000000000005</v>
+        <v>6440.5</v>
       </c>
       <c r="D24">
-        <v>0.91598000000000002</v>
+        <v>3711.5</v>
       </c>
       <c r="E24">
-        <v>0.88004000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1656.5</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43459928988080143</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74832975076976704</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.85884530834201089</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.88417400587136374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>75</v>
       </c>
       <c r="B25">
-        <v>0.26472000000000001</v>
+        <v>4598</v>
       </c>
       <c r="C25">
-        <v>0.64376</v>
+        <v>5236</v>
       </c>
       <c r="D25">
-        <v>0.66903999999999997</v>
+        <v>2834.5</v>
       </c>
       <c r="E25">
-        <v>0.85823000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1582.5</v>
+      </c>
+      <c r="I25">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29152929241694142</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60837738918259454</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.65590651394191835</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.84467574059247397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
       <c r="B26">
-        <v>0.12669</v>
+        <v>2441.5</v>
       </c>
       <c r="C26">
-        <v>0.41736000000000001</v>
+        <v>3646</v>
       </c>
       <c r="D26">
-        <v>0.57213000000000003</v>
+        <v>2338</v>
       </c>
       <c r="E26">
-        <v>0.86314000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1457</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15479964494040072</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42363330041247893</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.5410158509776698</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0.77768881772084331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>125</v>
       </c>
       <c r="B27">
-        <v>7.5934000000000001E-2</v>
+        <v>1580</v>
       </c>
       <c r="C27">
-        <v>0.30184</v>
+        <v>2625.5</v>
       </c>
       <c r="D27">
-        <v>0.41343000000000002</v>
+        <v>1719</v>
       </c>
       <c r="E27">
-        <v>0.77698999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1242</v>
+      </c>
+      <c r="I27">
+        <v>125</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10017752979964493</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3050601289722884</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.39777854911489069</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.6629303442754203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>150</v>
       </c>
       <c r="B28">
-        <v>5.5236E-2</v>
+        <v>1147.5</v>
       </c>
       <c r="C28">
-        <v>0.22797999999999999</v>
+        <v>2036</v>
       </c>
       <c r="D28">
-        <v>0.33140999999999998</v>
+        <v>1405.5</v>
       </c>
       <c r="E28">
-        <v>0.63739999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1152.5</v>
+      </c>
+      <c r="I28">
+        <v>150</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2755516104488965E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23656538662638704</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.32523429364803885</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.61515879370162796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>175</v>
       </c>
       <c r="B29">
-        <v>3.2197000000000003E-2</v>
+        <v>745</v>
       </c>
       <c r="C29">
-        <v>0.15531</v>
+        <v>1411.5</v>
       </c>
       <c r="D29">
-        <v>0.27161999999999997</v>
+        <v>1236.5</v>
       </c>
       <c r="E29">
-        <v>0.61231999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+      <c r="I29">
+        <v>175</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7235607405528783E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16400395050252717</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.28612750202475989</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.47824926607953028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>200</v>
       </c>
       <c r="B30">
-        <v>2.2135999999999999E-2</v>
+        <v>600</v>
       </c>
       <c r="C30">
-        <v>0.12421</v>
+        <v>1170.5</v>
       </c>
       <c r="D30">
-        <v>0.21537999999999999</v>
+        <v>899</v>
       </c>
       <c r="E30">
-        <v>0.47764000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8042099923915801E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13600185906001278</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.20802961934513478</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0.43341339738457435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>225</v>
       </c>
       <c r="B31">
-        <v>1.6098999999999999E-2</v>
+        <v>404</v>
       </c>
       <c r="C31">
-        <v>9.0245000000000006E-2</v>
+        <v>826</v>
       </c>
       <c r="D31">
-        <v>0.17315</v>
+        <v>810</v>
       </c>
       <c r="E31">
-        <v>0.39639999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>794.5</v>
+      </c>
+      <c r="I31">
+        <v>225</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5615013948769971E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5973973159821063E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0.1874349184311003</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0.42407259140645848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>250</v>
       </c>
       <c r="B32">
-        <v>1.0965000000000001E-2</v>
+        <v>328</v>
       </c>
       <c r="C32">
-        <v>6.7733000000000002E-2</v>
+        <v>679.5</v>
       </c>
       <c r="D32">
-        <v>0.12225</v>
+        <v>635</v>
       </c>
       <c r="E32">
-        <v>0.42312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>656.5</v>
+      </c>
+      <c r="I32">
+        <v>250</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0796347958407305E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8951954917794692E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0.14693972000462802</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.35041366426474513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>275</v>
       </c>
       <c r="B33">
-        <v>7.5564999999999998E-3</v>
+        <v>287</v>
       </c>
       <c r="C33">
-        <v>4.9861999999999997E-2</v>
+        <v>573</v>
       </c>
       <c r="D33">
-        <v>0.11158</v>
+        <v>546</v>
       </c>
       <c r="E33">
-        <v>0.36641000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>657.5</v>
+      </c>
+      <c r="I33">
+        <v>275</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.819680446360639E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6577586707720904E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0.12634501909059354</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.35094742460635175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>300</v>
       </c>
       <c r="B34">
-        <v>6.8583000000000003E-3</v>
+        <v>236</v>
       </c>
       <c r="C34">
-        <v>4.0679E-2</v>
+        <v>465.5</v>
       </c>
       <c r="D34">
-        <v>9.4020999999999993E-2</v>
+        <v>461.5</v>
       </c>
       <c r="E34">
-        <v>0.36041000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>603.5</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4963225970073548E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4087027246848315E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0.10679162327895407</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>0.32212436615959433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>325</v>
       </c>
       <c r="B35">
-        <v>4.6407000000000002E-3</v>
+        <v>196</v>
       </c>
       <c r="C35">
-        <v>3.5840999999999998E-2</v>
+        <v>396</v>
       </c>
       <c r="D35">
-        <v>8.2239999999999994E-2</v>
+        <v>419.5</v>
       </c>
       <c r="E35">
-        <v>0.33860000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>529.5</v>
+      </c>
+      <c r="I35">
+        <v>325</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2427085975145828E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6011735316330682E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>9.7072775656600718E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0.28262610088070456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>350</v>
       </c>
       <c r="B36">
-        <v>6.4476000000000004E-3</v>
+        <v>224</v>
       </c>
       <c r="C36">
-        <v>3.1201E-2</v>
+        <v>352</v>
       </c>
       <c r="D36">
-        <v>6.6459000000000004E-2</v>
+        <v>340</v>
       </c>
       <c r="E36">
-        <v>0.30589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>430.5</v>
+      </c>
+      <c r="I36">
+        <v>350</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4202383971595232E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.089932028118283E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>7.8676385514289016E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>0.22978382706164932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>375</v>
       </c>
       <c r="B37">
-        <v>3.2854E-3</v>
+        <v>151</v>
       </c>
       <c r="C37">
-        <v>2.1722000000000002E-2</v>
+        <v>278</v>
       </c>
       <c r="D37">
-        <v>5.4233999999999997E-2</v>
+        <v>287.5</v>
       </c>
       <c r="E37">
-        <v>0.18593000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="I37">
+        <v>375</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5739284808521435E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2301167722070527E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>6.6527825986347336E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.22257806244995998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>400</v>
       </c>
       <c r="B38">
-        <v>3.5317999999999999E-3</v>
+        <v>147.5</v>
       </c>
       <c r="C38">
-        <v>2.0537E-2</v>
+        <v>267.5</v>
       </c>
       <c r="D38">
-        <v>3.3118000000000002E-2</v>
+        <v>229</v>
       </c>
       <c r="E38">
-        <v>0.17502999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="I38">
+        <v>400</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3520162312959679E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1081159588682971E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>5.2990859655212309E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.1804109954630371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>425</v>
       </c>
       <c r="B39">
-        <v>2.7104999999999998E-3</v>
+        <v>120.5</v>
       </c>
       <c r="C39">
-        <v>1.8069000000000002E-2</v>
+        <v>232.5</v>
       </c>
       <c r="D39">
-        <v>3.2674000000000002E-2</v>
+        <v>232</v>
       </c>
       <c r="E39">
-        <v>0.15049000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335.5</v>
+      </c>
+      <c r="I39">
+        <v>425</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6401217347197561E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7014465810724451E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>5.3685063056808979E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.17907659460902056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>450</v>
       </c>
       <c r="B40">
-        <v>2.2587000000000002E-3</v>
+        <v>134</v>
       </c>
       <c r="C40">
-        <v>1.1946999999999999E-2</v>
+        <v>210.5</v>
       </c>
       <c r="D40">
-        <v>2.8895000000000001E-2</v>
+        <v>196.5</v>
       </c>
       <c r="E40">
-        <v>0.15212999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>301.5</v>
+      </c>
+      <c r="I40">
+        <v>450</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4960689830078616E-3</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4458258293150525E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>4.5470322804581742E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.16092874299439552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>475</v>
       </c>
       <c r="B41">
-        <v>1.9302E-3</v>
+        <v>112.5</v>
       </c>
       <c r="C41">
-        <v>9.6761E-3</v>
+        <v>174.5</v>
       </c>
       <c r="D41">
-        <v>3.1563000000000001E-2</v>
+        <v>216.5</v>
       </c>
       <c r="E41">
-        <v>0.12540999999999999</v>
+        <v>273</v>
+      </c>
+      <c r="I41">
+        <v>475</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1328937357342127E-3</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0275373264393191E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>5.0098345481892861E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.14571657325860687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>500</v>
+      </c>
+      <c r="B42">
+        <v>124.5</v>
+      </c>
+      <c r="C42">
+        <v>165.5</v>
+      </c>
+      <c r="D42">
+        <v>202</v>
+      </c>
+      <c r="E42">
+        <v>232.5</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8937357342125283E-3</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9229652007203859E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>4.67430290408423E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>0.12409927942353884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B2:B42)</f>
+        <v>15772</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:E44" si="4">MAX(C2:C42)</f>
+        <v>8606.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>4321.5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>1873.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -35964,10 +36829,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF77A97B-5A00-47AA-BC96-1942EA403C4E}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A129" sqref="A2:A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35992,10 +36857,10 @@
         <v>25.67</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -36003,10 +36868,10 @@
         <v>51.34</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -36014,10 +36879,10 @@
         <v>77.010000000000005</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -36025,10 +36890,10 @@
         <v>102.68</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -36036,10 +36901,10 @@
         <v>128.35</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -36047,10 +36912,10 @@
         <v>154.02000000000001</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>452</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -36058,10 +36923,10 @@
         <v>179.69</v>
       </c>
       <c r="B8">
-        <v>114</v>
+        <v>497</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -36069,10 +36934,10 @@
         <v>205.36</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>604</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -36080,10 +36945,10 @@
         <v>231.03</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>695</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -36091,10 +36956,10 @@
         <v>256.7</v>
       </c>
       <c r="B11">
-        <v>133</v>
+        <v>985</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -36102,10 +36967,10 @@
         <v>282.37</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>1481</v>
       </c>
       <c r="C12">
-        <v>163</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -36113,10 +36978,10 @@
         <v>308.04000000000002</v>
       </c>
       <c r="B13">
-        <v>139</v>
+        <v>2556</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -36124,10 +36989,10 @@
         <v>333.71</v>
       </c>
       <c r="B14">
-        <v>145</v>
+        <v>6417</v>
       </c>
       <c r="C14">
-        <v>147</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -36135,10 +37000,10 @@
         <v>359.38</v>
       </c>
       <c r="B15">
-        <v>129</v>
+        <v>10235</v>
       </c>
       <c r="C15">
-        <v>141</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -36146,10 +37011,10 @@
         <v>385.05</v>
       </c>
       <c r="B16">
-        <v>171</v>
+        <v>9916</v>
       </c>
       <c r="C16">
-        <v>147</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -36157,10 +37022,10 @@
         <v>410.72</v>
       </c>
       <c r="B17">
-        <v>163</v>
+        <v>9092</v>
       </c>
       <c r="C17">
-        <v>156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -36168,10 +37033,10 @@
         <v>436.39</v>
       </c>
       <c r="B18">
-        <v>197</v>
+        <v>4474</v>
       </c>
       <c r="C18">
-        <v>183</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -36179,10 +37044,10 @@
         <v>462.06</v>
       </c>
       <c r="B19">
-        <v>167</v>
+        <v>2179</v>
       </c>
       <c r="C19">
-        <v>204</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -36190,10 +37055,10 @@
         <v>487.73</v>
       </c>
       <c r="B20">
-        <v>197</v>
+        <v>1220</v>
       </c>
       <c r="C20">
-        <v>210</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -36201,10 +37066,10 @@
         <v>513.4</v>
       </c>
       <c r="B21">
-        <v>259</v>
+        <v>1008</v>
       </c>
       <c r="C21">
-        <v>282</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -36212,10 +37077,10 @@
         <v>539.07000000000005</v>
       </c>
       <c r="B22">
-        <v>247</v>
+        <v>949</v>
       </c>
       <c r="C22">
-        <v>272</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -36223,10 +37088,10 @@
         <v>564.74</v>
       </c>
       <c r="B23">
-        <v>263</v>
+        <v>784</v>
       </c>
       <c r="C23">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -36234,10 +37099,10 @@
         <v>590.41</v>
       </c>
       <c r="B24">
-        <v>470</v>
+        <v>816</v>
       </c>
       <c r="C24">
-        <v>696</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -36245,10 +37110,10 @@
         <v>616.08000000000004</v>
       </c>
       <c r="B25">
-        <v>742</v>
+        <v>981</v>
       </c>
       <c r="C25">
-        <v>1201</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -36256,10 +37121,10 @@
         <v>641.75</v>
       </c>
       <c r="B26">
-        <v>1033</v>
+        <v>1415</v>
       </c>
       <c r="C26">
-        <v>2618</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -36267,10 +37132,10 @@
         <v>667.42</v>
       </c>
       <c r="B27">
-        <v>1574</v>
+        <v>2469</v>
       </c>
       <c r="C27">
-        <v>5364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -36278,10 +37143,10 @@
         <v>693.09</v>
       </c>
       <c r="B28">
-        <v>1973</v>
+        <v>4770</v>
       </c>
       <c r="C28">
-        <v>10116</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -36289,10 +37154,10 @@
         <v>718.76</v>
       </c>
       <c r="B29">
-        <v>3875</v>
+        <v>8635</v>
       </c>
       <c r="C29">
-        <v>9038</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -36300,10 +37165,10 @@
         <v>744.43</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>8629</v>
       </c>
       <c r="C30">
-        <v>11649</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -36311,10 +37176,10 @@
         <v>770.1</v>
       </c>
       <c r="B31">
-        <v>1795</v>
+        <v>5872</v>
       </c>
       <c r="C31">
-        <v>6156</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -36322,10 +37187,10 @@
         <v>795.77</v>
       </c>
       <c r="B32">
-        <v>1280</v>
+        <v>3169</v>
       </c>
       <c r="C32">
-        <v>2942</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -36333,10 +37198,10 @@
         <v>821.44</v>
       </c>
       <c r="B33">
-        <v>906</v>
+        <v>1613</v>
       </c>
       <c r="C33">
-        <v>1701</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -36344,10 +37209,10 @@
         <v>847.11</v>
       </c>
       <c r="B34">
-        <v>899</v>
+        <v>1249</v>
       </c>
       <c r="C34">
-        <v>1564</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -36355,10 +37220,10 @@
         <v>872.78</v>
       </c>
       <c r="B35">
-        <v>1204</v>
+        <v>974</v>
       </c>
       <c r="C35">
-        <v>2127</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -36366,10 +37231,10 @@
         <v>898.45</v>
       </c>
       <c r="B36">
-        <v>1891</v>
+        <v>830</v>
       </c>
       <c r="C36">
-        <v>3602</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -36377,10 +37242,10 @@
         <v>924.12</v>
       </c>
       <c r="B37">
-        <v>2926</v>
+        <v>717</v>
       </c>
       <c r="C37">
-        <v>7811</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -36388,10 +37253,10 @@
         <v>949.79</v>
       </c>
       <c r="B38">
-        <v>3653</v>
+        <v>668</v>
       </c>
       <c r="C38">
-        <v>12189</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -36399,10 +37264,10 @@
         <v>975.46</v>
       </c>
       <c r="B39">
-        <v>3990</v>
+        <v>749</v>
       </c>
       <c r="C39">
-        <v>13720</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -36410,10 +37275,10 @@
         <v>1001.13</v>
       </c>
       <c r="B40">
-        <v>4918</v>
+        <v>842</v>
       </c>
       <c r="C40">
-        <v>9686</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -36421,10 +37286,10 @@
         <v>1026.8</v>
       </c>
       <c r="B41">
-        <v>3764</v>
+        <v>1025</v>
       </c>
       <c r="C41">
-        <v>8133</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -36432,10 +37297,10 @@
         <v>1052.47</v>
       </c>
       <c r="B42">
-        <v>2182</v>
+        <v>1178</v>
       </c>
       <c r="C42">
-        <v>4096</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -36443,10 +37308,10 @@
         <v>1078.1400000000001</v>
       </c>
       <c r="B43">
-        <v>1173</v>
+        <v>1113</v>
       </c>
       <c r="C43">
-        <v>2147</v>
+        <v>14501</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -36454,10 +37319,10 @@
         <v>1103.81</v>
       </c>
       <c r="B44">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C44">
-        <v>1137</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -36465,10 +37330,10 @@
         <v>1129.48</v>
       </c>
       <c r="B45">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="C45">
-        <v>670</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -36476,10 +37341,10 @@
         <v>1155.1500000000001</v>
       </c>
       <c r="B46">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="C46">
-        <v>461</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -36487,10 +37352,10 @@
         <v>1180.82</v>
       </c>
       <c r="B47">
-        <v>263</v>
+        <v>546</v>
       </c>
       <c r="C47">
-        <v>328</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -36498,10 +37363,10 @@
         <v>1206.49</v>
       </c>
       <c r="B48">
-        <v>196</v>
+        <v>579</v>
       </c>
       <c r="C48">
-        <v>230</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -36509,10 +37374,10 @@
         <v>1232.1600000000001</v>
       </c>
       <c r="B49">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="C49">
-        <v>199</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -36520,10 +37385,10 @@
         <v>1257.83</v>
       </c>
       <c r="B50">
-        <v>175</v>
+        <v>550</v>
       </c>
       <c r="C50">
-        <v>209</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -36531,10 +37396,10 @@
         <v>1283.5</v>
       </c>
       <c r="B51">
-        <v>137</v>
+        <v>720</v>
       </c>
       <c r="C51">
-        <v>196</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -36542,10 +37407,10 @@
         <v>1309.17</v>
       </c>
       <c r="B52">
-        <v>104</v>
+        <v>844</v>
       </c>
       <c r="C52">
-        <v>105</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -36553,10 +37418,10 @@
         <v>1334.84</v>
       </c>
       <c r="B53">
-        <v>87</v>
+        <v>1248</v>
       </c>
       <c r="C53">
-        <v>116</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -36564,10 +37429,10 @@
         <v>1360.51</v>
       </c>
       <c r="B54">
-        <v>97</v>
+        <v>1579</v>
       </c>
       <c r="C54">
-        <v>138</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -36575,10 +37440,10 @@
         <v>1386.18</v>
       </c>
       <c r="B55">
-        <v>66</v>
+        <v>2005</v>
       </c>
       <c r="C55">
-        <v>140</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -36586,10 +37451,10 @@
         <v>1411.85</v>
       </c>
       <c r="B56">
-        <v>82</v>
+        <v>2442</v>
       </c>
       <c r="C56">
-        <v>152</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -36597,10 +37462,10 @@
         <v>1437.52</v>
       </c>
       <c r="B57">
-        <v>64</v>
+        <v>2009</v>
       </c>
       <c r="C57">
-        <v>171</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -36608,10 +37473,10 @@
         <v>1463.19</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>1655</v>
       </c>
       <c r="C58">
-        <v>166</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -36619,10 +37484,10 @@
         <v>1488.86</v>
       </c>
       <c r="B59">
-        <v>55</v>
+        <v>1201</v>
       </c>
       <c r="C59">
-        <v>93</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -36630,10 +37495,10 @@
         <v>1514.53</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>756</v>
       </c>
       <c r="C60">
-        <v>79</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -36641,10 +37506,10 @@
         <v>1540.2</v>
       </c>
       <c r="B61">
-        <v>65</v>
+        <v>607</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -36652,10 +37517,10 @@
         <v>1565.87</v>
       </c>
       <c r="B62">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>792</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -36663,10 +37528,10 @@
         <v>1591.54</v>
       </c>
       <c r="B63">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -36674,10 +37539,10 @@
         <v>1617.21</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -36685,714 +37550,10 @@
         <v>1642.88</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="C65">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1668.55</v>
-      </c>
-      <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1694.22</v>
-      </c>
-      <c r="B67">
-        <v>53</v>
-      </c>
-      <c r="C67">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1719.89</v>
-      </c>
-      <c r="B68">
-        <v>70</v>
-      </c>
-      <c r="C68">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1745.56</v>
-      </c>
-      <c r="B69">
-        <v>87</v>
-      </c>
-      <c r="C69">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1771.23</v>
-      </c>
-      <c r="B70">
-        <v>84</v>
-      </c>
-      <c r="C70">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1796.9</v>
-      </c>
-      <c r="B71">
-        <v>81</v>
-      </c>
-      <c r="C71">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1822.57</v>
-      </c>
-      <c r="B72">
-        <v>52</v>
-      </c>
-      <c r="C72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1848.24</v>
-      </c>
-      <c r="B73">
-        <v>59</v>
-      </c>
-      <c r="C73">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1873.91</v>
-      </c>
-      <c r="B74">
-        <v>53</v>
-      </c>
-      <c r="C74">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1899.58</v>
-      </c>
-      <c r="B75">
-        <v>39</v>
-      </c>
-      <c r="C75">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1925.25</v>
-      </c>
-      <c r="B76">
-        <v>33</v>
-      </c>
-      <c r="C76">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1950.92</v>
-      </c>
-      <c r="B77">
-        <v>36</v>
-      </c>
-      <c r="C77">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1976.59</v>
-      </c>
-      <c r="B78">
-        <v>42</v>
-      </c>
-      <c r="C78">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2002.26</v>
-      </c>
-      <c r="B79">
-        <v>27</v>
-      </c>
-      <c r="C79">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2027.93</v>
-      </c>
-      <c r="B80">
-        <v>29</v>
-      </c>
-      <c r="C80">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2053.6</v>
-      </c>
-      <c r="B81">
-        <v>34</v>
-      </c>
-      <c r="C81">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2079.27</v>
-      </c>
-      <c r="B82">
-        <v>27</v>
-      </c>
-      <c r="C82">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2104.94</v>
-      </c>
-      <c r="B83">
-        <v>20</v>
-      </c>
-      <c r="C83">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2130.61</v>
-      </c>
-      <c r="B84">
-        <v>30</v>
-      </c>
-      <c r="C84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2156.2800000000002</v>
-      </c>
-      <c r="B85">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2181.9499999999998</v>
-      </c>
-      <c r="B86">
-        <v>31</v>
-      </c>
-      <c r="C86">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2207.62</v>
-      </c>
-      <c r="B87">
-        <v>22</v>
-      </c>
-      <c r="C87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2233.29</v>
-      </c>
-      <c r="B88">
-        <v>21</v>
-      </c>
-      <c r="C88">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2258.96</v>
-      </c>
-      <c r="B89">
-        <v>19</v>
-      </c>
-      <c r="C89">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>2284.63</v>
-      </c>
-      <c r="B90">
-        <v>21</v>
-      </c>
-      <c r="C90">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2310.3000000000002</v>
-      </c>
-      <c r="B91">
-        <v>38</v>
-      </c>
-      <c r="C91">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>2335.9699999999998</v>
-      </c>
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>2361.64</v>
-      </c>
-      <c r="B93">
-        <v>26</v>
-      </c>
-      <c r="C93">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2387.31</v>
-      </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>2412.98</v>
-      </c>
-      <c r="B95">
-        <v>17</v>
-      </c>
-      <c r="C95">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2438.65</v>
-      </c>
-      <c r="B96">
-        <v>29</v>
-      </c>
-      <c r="C96">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>2464.3200000000002</v>
-      </c>
-      <c r="B97">
-        <v>17</v>
-      </c>
-      <c r="C97">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>2489.9899999999998</v>
-      </c>
-      <c r="B98">
-        <v>27</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2515.66</v>
-      </c>
-      <c r="B99">
-        <v>13</v>
-      </c>
-      <c r="C99">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2541.33</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2567</v>
-      </c>
-      <c r="B101">
-        <v>18</v>
-      </c>
-      <c r="C101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>2592.67</v>
-      </c>
-      <c r="B102">
-        <v>16</v>
-      </c>
-      <c r="C102">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>2618.34</v>
-      </c>
-      <c r="B103">
-        <v>12</v>
-      </c>
-      <c r="C103">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>2644.01</v>
-      </c>
-      <c r="B104">
-        <v>14</v>
-      </c>
-      <c r="C104">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>2669.68</v>
-      </c>
-      <c r="B105">
-        <v>22</v>
-      </c>
-      <c r="C105">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>2695.35</v>
-      </c>
-      <c r="B106">
-        <v>17</v>
-      </c>
-      <c r="C106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>2721.02</v>
-      </c>
-      <c r="B107">
-        <v>34</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>2746.69</v>
-      </c>
-      <c r="B108">
-        <v>17</v>
-      </c>
-      <c r="C108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>2772.36</v>
-      </c>
-      <c r="B109">
-        <v>17</v>
-      </c>
-      <c r="C109">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>2798.03</v>
-      </c>
-      <c r="B110">
-        <v>17</v>
-      </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>2823.7</v>
-      </c>
-      <c r="B111">
-        <v>46</v>
-      </c>
-      <c r="C111">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>2849.37</v>
-      </c>
-      <c r="B112">
-        <v>58</v>
-      </c>
-      <c r="C112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>2875.04</v>
-      </c>
-      <c r="B113">
-        <v>11</v>
-      </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>2900.71</v>
-      </c>
-      <c r="B114">
-        <v>14</v>
-      </c>
-      <c r="C114">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>2926.38</v>
-      </c>
-      <c r="B115">
-        <v>13</v>
-      </c>
-      <c r="C115">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>2952.05</v>
-      </c>
-      <c r="B116">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>2977.72</v>
-      </c>
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3003.39</v>
-      </c>
-      <c r="B118">
-        <v>6</v>
-      </c>
-      <c r="C118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>3029.06</v>
-      </c>
-      <c r="B119">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>3054.73</v>
-      </c>
-      <c r="B120">
-        <v>15</v>
-      </c>
-      <c r="C120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>3080.4</v>
-      </c>
-      <c r="B121">
-        <v>7</v>
-      </c>
-      <c r="C121">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>3106.07</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
-      </c>
-      <c r="C122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>3131.74</v>
-      </c>
-      <c r="B123">
-        <v>13</v>
-      </c>
-      <c r="C123">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>3157.41</v>
-      </c>
-      <c r="B124">
-        <v>6</v>
-      </c>
-      <c r="C124">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>3183.08</v>
-      </c>
-      <c r="B125">
-        <v>11</v>
-      </c>
-      <c r="C125">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>3208.75</v>
-      </c>
-      <c r="B126">
-        <v>12</v>
-      </c>
-      <c r="C126">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>3234.42</v>
-      </c>
-      <c r="B127">
-        <v>4</v>
-      </c>
-      <c r="C127">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>3260.09</v>
-      </c>
-      <c r="B128">
-        <v>10</v>
-      </c>
-      <c r="C128">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>3285.76</v>
-      </c>
-      <c r="B129">
-        <v>14</v>
-      </c>
-      <c r="C129">
-        <v>10</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
